--- a/extras/sample-form/Sample form - Advanced format symbol field plug-in.xlsx
+++ b/extras/sample-form/Sample form - Advanced format symbol field plug-in.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/format-symbol-advanced/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B0933-A2DD-9F4F-9401-69305E8BDE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7729E3-ABB2-704B-B47A-0C96C40411F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41120" yWindow="3220" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2948,22 +2948,22 @@
     <t>"custom-format-symbol-advanced(left = "This is some fairly long text on the left",right = "This is some fairly long text on the right",below = "This is some fairly long text at the bottom")"</t>
   </si>
   <si>
-    <t>custom-format-symbol-advanced(right = "This is some fairly long text on the right",field-width="half")</t>
-  </si>
-  <si>
-    <t>"custom-format-symbol-advanced(right = "This is some fairly long text on the right",field-width="half")"</t>
-  </si>
-  <si>
-    <t>"custom-format-symbol-advanced(left = "This is some fairly long text on the left",field-width=25)"</t>
-  </si>
-  <si>
-    <t>custom-format-symbol-advanced(left = "This is some fairly long text on the left",field-width=25)</t>
-  </si>
-  <si>
-    <t>custom-format-symbol-advanced(left = "$",field-width=25)</t>
-  </si>
-  <si>
-    <t>"custom-format-symbol-advanced(left = "$",field-width=25)"</t>
+    <t>custom-format-symbol-advanced(right = "This is some fairly long text on the right",symbol-width="half")</t>
+  </si>
+  <si>
+    <t>custom-format-symbol-advanced(left = "This is some fairly long text on the left",symbol-width=25)</t>
+  </si>
+  <si>
+    <t>custom-format-symbol-advanced(left = "$",symbol-width=25)</t>
+  </si>
+  <si>
+    <t>"custom-format-symbol-advanced(left = "$",symbol-width=25)"</t>
+  </si>
+  <si>
+    <t>"custom-format-symbol-advanced(left = "This is some fairly long text on the left",symbol-width=25)"</t>
+  </si>
+  <si>
+    <t>"custom-format-symbol-advanced(right = "This is some fairly long text on the right",symbol-width="half")"</t>
   </si>
 </sst>
 </file>
@@ -3409,7 +3409,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="93">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3485,16 +3485,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF99BCE7"/>
-          <bgColor rgb="FF99BCE7"/>
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
+          <fgColor rgb="FF99BCE7"/>
+          <bgColor rgb="FF99BCE7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3509,8 +3509,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFBA005D"/>
-          <bgColor rgb="FFBA005D"/>
+          <fgColor rgb="FFE7D480"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDE8C6"/>
+          <bgColor rgb="FFDDE8C6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3525,16 +3533,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDDE8C6"/>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE7D480"/>
-          <bgColor rgb="FFE7D480"/>
+          <fgColor rgb="FFBA005D"/>
+          <bgColor rgb="FFBA005D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3549,8 +3549,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF2DBDA"/>
-          <bgColor rgb="FFF2DBDA"/>
+          <fgColor rgb="FFEAF1DD"/>
+          <bgColor rgb="FFEAF1DD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3565,8 +3565,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF1DD"/>
-          <bgColor rgb="FFEAF1DD"/>
+          <fgColor rgb="FFF2DBDA"/>
+          <bgColor rgb="FFF2DBDA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3599,94 +3599,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF6969"/>
           <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FFFABF8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4685D2"/>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD6E3BC"/>
-          <bgColor rgb="FFD6E3BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC4BD97"/>
-          <bgColor rgb="FFC4BD97"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3749,8 +3661,128 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4685D2"/>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FFFABF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEEB400"/>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEEB400"/>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC4BD97"/>
+          <bgColor rgb="FFC4BD97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF99BCE7"/>
           <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99BCE7"/>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD44B"/>
+          <bgColor rgb="FFFFD44B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3797,6 +3829,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF99BCE7"/>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFD44B"/>
           <bgColor rgb="FFFFD44B"/>
         </patternFill>
@@ -3805,56 +3845,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF99BCE7"/>
-          <bgColor rgb="FF99BCE7"/>
+          <fgColor rgb="FFEAF1DD"/>
+          <bgColor rgb="FFEAF1DD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
+          <fgColor rgb="FFFF6969"/>
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF99BCE7"/>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99BCE7"/>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor rgb="FFCCC0D9"/>
+          <bgColor rgb="FFCCC0D9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3869,32 +3877,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0D9"/>
-          <bgColor rgb="FFCCC0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6969"/>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAF1DD"/>
-          <bgColor rgb="FFEAF1DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD44B"/>
-          <bgColor rgb="FFFFD44B"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3925,8 +3909,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFE7D480"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFBA005D"/>
           <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDE8C6"/>
+          <bgColor rgb="FFDDE8C6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3941,22 +3941,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDDE8C6"/>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE7D480"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFFBB57"/>
           <bgColor rgb="FFFFBB57"/>
         </patternFill>
@@ -3965,16 +3949,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF2DBDA"/>
-          <bgColor rgb="FFF2DBDA"/>
+          <fgColor rgb="FFCCC0D9"/>
+          <bgColor rgb="FFCCC0D9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0D9"/>
-          <bgColor rgb="FFCCC0D9"/>
+          <fgColor rgb="FFF2DBDA"/>
+          <bgColor rgb="FFF2DBDA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4021,16 +4005,120 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEEB400"/>
-          <bgColor rgb="FFEEB400"/>
+          <fgColor rgb="FF9E004F"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE1AAA9"/>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF6D9E"/>
+          <bgColor rgb="FFFF6D9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB2A1C7"/>
+          <bgColor rgb="FFB2A1C7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE4E300"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCC97A"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC2D69B"/>
+          <bgColor rgb="FFC2D69B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC4BD97"/>
+          <bgColor rgb="FFC4BD97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4685D2"/>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FFFABF8F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4053,120 +4141,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FFFABF8F"/>
+          <fgColor rgb="FFEEB400"/>
+          <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4685D2"/>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD6E3BC"/>
-          <bgColor rgb="FFD6E3BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC4BD97"/>
-          <bgColor rgb="FFC4BD97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69B"/>
-          <bgColor rgb="FFC2D69B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCC97A"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE4E300"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB2A1C7"/>
-          <bgColor rgb="FFB2A1C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE1AAA9"/>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9E004F"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6D9E"/>
-          <bgColor rgb="FFFF6D9E"/>
+          <fgColor rgb="FFEEB400"/>
+          <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4383,9 +4367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5076,7 +5060,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="39" t="s">
@@ -5111,11 +5095,11 @@
         <v>39</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="39" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
@@ -5146,11 +5130,11 @@
         <v>39</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="39" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
@@ -10953,196 +10937,190 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A1:W1002">
-    <cfRule type="expression" dxfId="94" priority="33" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
+    <cfRule type="expression" dxfId="92" priority="51" stopIfTrue="1">
+      <formula>$A1="begin group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="34" stopIfTrue="1">
-      <formula>$A1="comments"</formula>
+    <cfRule type="expression" dxfId="91" priority="50" stopIfTrue="1">
+      <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="35" stopIfTrue="1">
-      <formula>OR($A1="audio", $A1="video")</formula>
+    <cfRule type="expression" dxfId="90" priority="49" stopIfTrue="1">
+      <formula>$A1="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="36" stopIfTrue="1">
-      <formula>$A1="image"</formula>
+    <cfRule type="expression" dxfId="89" priority="48" stopIfTrue="1">
+      <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="37" stopIfTrue="1">
-      <formula>OR($A1="date", $A1="datetime")</formula>
+    <cfRule type="expression" dxfId="88" priority="47" stopIfTrue="1">
+      <formula>$A1="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="38" stopIfTrue="1">
-      <formula>OR($A1="calculate", $A1="calculate_here")</formula>
+    <cfRule type="expression" dxfId="87" priority="46" stopIfTrue="1">
+      <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="39" stopIfTrue="1">
-      <formula>$A1="note"</formula>
+    <cfRule type="expression" dxfId="86" priority="45" stopIfTrue="1">
+      <formula>$A1="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="40" stopIfTrue="1">
-      <formula>$A1="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="41" stopIfTrue="1">
-      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="42" stopIfTrue="1">
-      <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
+    <cfRule type="expression" dxfId="85" priority="44" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="84" priority="43" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="44" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
+    <cfRule type="expression" dxfId="83" priority="42" stopIfTrue="1">
+      <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="45" stopIfTrue="1">
-      <formula>$A1="decimal"</formula>
+    <cfRule type="expression" dxfId="82" priority="41" stopIfTrue="1">
+      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="46" stopIfTrue="1">
-      <formula>$A1="integer"</formula>
+    <cfRule type="expression" dxfId="81" priority="40" stopIfTrue="1">
+      <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="47" stopIfTrue="1">
-      <formula>$A1="text"</formula>
+    <cfRule type="expression" dxfId="80" priority="39" stopIfTrue="1">
+      <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="48" stopIfTrue="1">
-      <formula>$A1="end repeat"</formula>
+    <cfRule type="expression" dxfId="79" priority="38" stopIfTrue="1">
+      <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="49" stopIfTrue="1">
-      <formula>$A1="begin repeat"</formula>
+    <cfRule type="expression" dxfId="78" priority="37" stopIfTrue="1">
+      <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="50" stopIfTrue="1">
-      <formula>$A1="end group"</formula>
+    <cfRule type="expression" dxfId="77" priority="33" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="51" stopIfTrue="1">
-      <formula>$A1="begin group"</formula>
+    <cfRule type="expression" dxfId="76" priority="36" stopIfTrue="1">
+      <formula>$A1="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="35" stopIfTrue="1">
+      <formula>OR($A1="audio", $A1="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="34" stopIfTrue="1">
+      <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1002 F1:F1002">
-    <cfRule type="expression" dxfId="75" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="25" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="53" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1002 B1:B1002">
-    <cfRule type="expression" dxfId="73" priority="29" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B1002 N1:N1002">
+    <cfRule type="expression" dxfId="71" priority="29" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1002">
-    <cfRule type="expression" dxfId="72" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="52" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1002 F1:F1002">
-    <cfRule type="expression" dxfId="71" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="24" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="31" stopIfTrue="1">
+      <formula>$A1="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="30" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="31" stopIfTrue="1">
-      <formula>$A1="image"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1002 O1:O1002 B1:C1002">
-    <cfRule type="expression" dxfId="68" priority="20" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C1002 I1:I1002 O1:O1002">
+    <cfRule type="expression" dxfId="66" priority="20" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1002">
-    <cfRule type="expression" dxfId="67" priority="26" stopIfTrue="1">
-      <formula>$A1="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="27" stopIfTrue="1">
-      <formula>$A1="barcode"</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="65" priority="28" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="27" stopIfTrue="1">
+      <formula>$A1="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="32" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="26" stopIfTrue="1">
+      <formula>$A1="note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1002 F1:F1002">
-    <cfRule type="expression" dxfId="63" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="21" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1002 B1:D1002 F12:F19">
-    <cfRule type="expression" dxfId="62" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:D1002 F12:F19 G1:H1002">
+    <cfRule type="expression" dxfId="60" priority="22" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="23" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D1002 G1:H1002 F12:F19">
+    <cfRule type="expression" dxfId="59" priority="23" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D28">
-    <cfRule type="expression" dxfId="60" priority="7" stopIfTrue="1">
-      <formula>$A19="begin group"</formula>
+    <cfRule type="expression" dxfId="58" priority="12" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A19, 14)="sensor_stream ", LEN($A19)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A19, 15)))), AND(LEFT($A19, 17)="sensor_statistic ", LEN($A19)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A19, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="11" stopIfTrue="1">
+      <formula>$A19="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="10" stopIfTrue="1">
+      <formula>OR($A19="date", $A19="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="9" stopIfTrue="1">
+      <formula>OR($A19="audio audit", $A19="text audit", $A19="speed violations count", $A19="speed violations list", $A19="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="8" stopIfTrue="1">
       <formula>OR(AND(LEFT($A19, 16)="select_multiple ", LEN($A19)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A19, 17)))), AND(LEFT($A19, 11)="select_one ", LEN($A19)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A19, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="9" stopIfTrue="1">
-      <formula>OR($A19="audio audit", $A19="text audit", $A19="speed violations count", $A19="speed violations list", $A19="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="10" stopIfTrue="1">
-      <formula>OR($A19="date", $A19="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="11" stopIfTrue="1">
-      <formula>$A19="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="12" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A19, 14)="sensor_stream ", LEN($A19)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A19, 15)))), AND(LEFT($A19, 17)="sensor_statistic ", LEN($A19)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A19, 18)))))</formula>
+    <cfRule type="expression" dxfId="53" priority="7" stopIfTrue="1">
+      <formula>$A19="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="54" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
+      <formula>$A20="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="5" stopIfTrue="1">
       <formula>$A20="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="6" stopIfTrue="1">
-      <formula>$A20="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="52" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
+      <formula>$A23="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
       <formula>$A23="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="4" stopIfTrue="1">
-      <formula>$A23="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="2" stopIfTrue="1">
+      <formula>$A26="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
       <formula>$A26="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2" stopIfTrue="1">
-      <formula>$A26="decimal"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1002 B1:C1002 F1:F1002">
-    <cfRule type="expression" dxfId="48" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1002 B1:C1002 I1:I1002">
+    <cfRule type="expression" dxfId="46" priority="19" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F22">
-    <cfRule type="expression" dxfId="47" priority="17" stopIfTrue="1">
-      <formula>$A20="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="F20:F23">
+    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
       <formula>$A20="decimal"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="45" priority="15" stopIfTrue="1">
-      <formula>$A23="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="16" stopIfTrue="1">
-      <formula>$A23="decimal"</formula>
+    <cfRule type="expression" dxfId="44" priority="15" stopIfTrue="1">
+      <formula>$A20="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="43" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="14" stopIfTrue="1">
+      <formula>$A26="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="13" stopIfTrue="1">
       <formula>$A26="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="14" stopIfTrue="1">
-      <formula>$A26="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0" footer="0"/>
@@ -13602,7 +13580,7 @@
       </c>
       <c r="C2" s="11" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2505021236</v>
+        <v>2505021604</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>54</v>
@@ -19683,59 +19661,59 @@
     <mergeCell ref="A83:B83"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:AD5">
-    <cfRule type="expression" dxfId="41" priority="15" stopIfTrue="1">
-      <formula>$A5="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="16" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="17" stopIfTrue="1">
-      <formula>$A5="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="18" stopIfTrue="1">
-      <formula>OR($A5="date", $A5="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="19" stopIfTrue="1">
-      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="20" stopIfTrue="1">
-      <formula>$A5="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="21" stopIfTrue="1">
-      <formula>$A5="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="23" stopIfTrue="1">
-      <formula>OR($A5="audio audit", $A5="text audit")</formula>
+    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
+      <formula>$A5="begin group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="31" stopIfTrue="1">
+      <formula>$A5="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="30" stopIfTrue="1">
+      <formula>$A5="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="29" stopIfTrue="1">
+      <formula>$A5="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="28" stopIfTrue="1">
+      <formula>$A5="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="27" stopIfTrue="1">
+      <formula>$A5="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="26" stopIfTrue="1">
+      <formula>$A5="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="25" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="24" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
+      <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
+    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
+      <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
+    <cfRule type="expression" dxfId="29" priority="16" stopIfTrue="1">
+      <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
-      <formula>$A5="text"</formula>
+    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
+      <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
-      <formula>$A5="end repeat"</formula>
+    <cfRule type="expression" dxfId="27" priority="18" stopIfTrue="1">
+      <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
-      <formula>$A5="begin repeat"</formula>
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
+      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
-      <formula>$A5="end group"</formula>
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
+      <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32" stopIfTrue="1">
-      <formula>$A5="begin group"</formula>
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
+      <formula>$A5="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
@@ -19759,14 +19737,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+      <formula>$A5="image"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
-      <formula>$A5="image"</formula>
+    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
@@ -19775,17 +19753,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
-      <formula>$A5="note"</formula>
+    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+      <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+      <formula>$A5="geopoint"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
-      <formula>$A5="geopoint"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+      <formula>$A5="note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:F5 H5">
@@ -19794,11 +19772,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:F5 I5:K5">
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+      <formula>$A5="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$A5="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">

--- a/extras/sample-form/Sample form - Advanced format symbol field plug-in.xlsx
+++ b/extras/sample-form/Sample form - Advanced format symbol field plug-in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/format-symbol-advanced/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7729E3-ABB2-704B-B47A-0C96C40411F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39CC81C-4693-8447-91B5-7CE1BB9EA855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41120" yWindow="3220" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2858,9 +2858,6 @@
     <t>intro</t>
   </si>
   <si>
-    <t>&lt;p&gt;Welcome to this SurveyCTO sample form! This is a sample form for the &lt;a href="Welcome%20to this SurveyCTO sample form! This is a sample form for the format-symbol field plug-in." target="_blank" rel="noopener"&gt;format-symbol field plug-in&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>field1</t>
   </si>
   <si>
@@ -2900,9 +2897,6 @@
     <t>sample_advance_format_symbol</t>
   </si>
   <si>
-    <t>"custom-format-symbol-advanced(left = "$")"</t>
-  </si>
-  <si>
     <t>custom-format-symbol-advanced(left = "$")</t>
   </si>
   <si>
@@ -2912,42 +2906,21 @@
     <t>custom-format-symbol-advanced(left = "$",right="per kg")</t>
   </si>
   <si>
-    <t>"custom-format-symbol-advanced(right = "per kg")"</t>
-  </si>
-  <si>
-    <t>"custom-format-symbol-advanced(left = "$",right="per kg")"</t>
-  </si>
-  <si>
     <t>custom-format-symbol-advanced(right = "This is some fairly long text on the right")</t>
   </si>
   <si>
-    <t>"custom-format-symbol-advanced(right = "This is some fairly long text on the right")"</t>
-  </si>
-  <si>
     <t>custom-format-symbol-advanced(left = "This is some fairly long text on the left")</t>
   </si>
   <si>
-    <t>"custom-format-symbol-advanced(left = "This is some fairly long text on the left")"</t>
-  </si>
-  <si>
     <t>custom-format-symbol-advanced(left = "This is some fairly long text on the left",right = "This is some fairly long text on the right")</t>
   </si>
   <si>
-    <t>"custom-format-symbol-advanced(left = "This is some fairly long text on the left",right = "This is some fairly long text on the right")"</t>
-  </si>
-  <si>
     <t>custom-format-symbol-advanced(below = "This is some fairly long text at the bottom")</t>
   </si>
   <si>
     <t>custom-format-symbol-advanced(left = "This is some fairly long text on the left",right = "This is some fairly long text on the right",below = "This is some fairly long text at the bottom")</t>
   </si>
   <si>
-    <t>"custom-format-symbol-advanced(below = "This is some fairly long text at the bottom")"</t>
-  </si>
-  <si>
-    <t>"custom-format-symbol-advanced(left = "This is some fairly long text on the left",right = "This is some fairly long text on the right",below = "This is some fairly long text at the bottom")"</t>
-  </si>
-  <si>
     <t>custom-format-symbol-advanced(right = "This is some fairly long text on the right",symbol-width="half")</t>
   </si>
   <si>
@@ -2957,13 +2930,40 @@
     <t>custom-format-symbol-advanced(left = "$",symbol-width=25)</t>
   </si>
   <si>
-    <t>"custom-format-symbol-advanced(left = "$",symbol-width=25)"</t>
-  </si>
-  <si>
-    <t>"custom-format-symbol-advanced(left = "This is some fairly long text on the left",symbol-width=25)"</t>
-  </si>
-  <si>
-    <t>"custom-format-symbol-advanced(right = "This is some fairly long text on the right",symbol-width="half")"</t>
+    <t>Symbol on the right</t>
+  </si>
+  <si>
+    <t>Symbol on the left</t>
+  </si>
+  <si>
+    <t>Symbol on the left and on the right</t>
+  </si>
+  <si>
+    <t>Long symbol on the right</t>
+  </si>
+  <si>
+    <t>Long symbol on the left</t>
+  </si>
+  <si>
+    <t>Long symbols on both the left and the right</t>
+  </si>
+  <si>
+    <t>Long symbol below</t>
+  </si>
+  <si>
+    <t>Long symbols on the left, right and below</t>
+  </si>
+  <si>
+    <t>Symbol on the right with field width set to half (50%)</t>
+  </si>
+  <si>
+    <t>Symbol on the left with field width set to 25%</t>
+  </si>
+  <si>
+    <t>Short symbol on the left with width set to 25%</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welcome to this SurveyCTO sample form! This is a sample form for the &lt;a href="https://github.com/surveycto/format-symbol-advanced/blob/main/extras/sample-form/Sample%20form%20-%20Advanced%20format%20symbol%20field%20plug-in.xlsx" target="_blank" rel="noopener"&gt;format-symbol-advanced field plug-in&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -4367,9 +4367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4743,8 +4743,8 @@
       <c r="B11" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>365</v>
+      <c r="C11" s="42" t="s">
+        <v>400</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="6"/>
@@ -4774,17 +4774,17 @@
         <v>38</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="39" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
@@ -4809,17 +4809,17 @@
         <v>38</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="39" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
@@ -4844,17 +4844,17 @@
         <v>38</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
@@ -4879,17 +4879,17 @@
         <v>38</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="39" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
@@ -4914,17 +4914,17 @@
         <v>38</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="39" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
@@ -4949,17 +4949,17 @@
         <v>38</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="39" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="8"/>
@@ -4984,17 +4984,17 @@
         <v>38</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="39" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
@@ -5019,17 +5019,17 @@
         <v>38</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="39" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
@@ -5054,17 +5054,17 @@
         <v>38</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="39" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
@@ -5089,17 +5089,17 @@
         <v>38</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="39" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
@@ -5124,17 +5124,17 @@
         <v>38</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="39" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
@@ -13573,14 +13573,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>377</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>378</v>
       </c>
       <c r="C2" s="11" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2505021604</v>
+        <v>2505071232</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>54</v>
